--- a/決算用予算会議入力フォーマット_2021 .xlsx
+++ b/決算用予算会議入力フォーマット_2021 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C7C5D4-4C6D-4A07-BF28-FF3EDB988713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A45F1E-924E-45A4-A329-F8995694C3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27240" yWindow="3435" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1344" yWindow="432" windowWidth="17280" windowHeight="10752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="入力シート" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="134">
   <si>
     <t>学年</t>
     <rPh sb="0" eb="2">
@@ -1256,113 +1256,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アルミ2000 3t 200×400</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルミ7000 3t 200×400</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジュラコン5t</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルミ7000 6t 200×400</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>M4 8mm なべネジ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ナイロンナットm3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鋼六角穴付皿M3X8</t>
-    <rPh sb="0" eb="1">
-      <t>ハガネ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ロッカク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アナ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>サラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鋼六角穴付キャップM3X8</t>
-    <rPh sb="0" eb="1">
-      <t>ハガネ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ロッカク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アナ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鋼六角穴付キャップM3X22</t>
-    <rPh sb="0" eb="1">
-      <t>ハガネ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ロッカク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アナ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オイレス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ABS樹脂 100X100</t>
-    <rPh sb="3" eb="5">
-      <t>ジュシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RS-380PHモーター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スペーサ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポリカ3t</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポリカ5t</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タミヤ ビッグボアダンパー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルミ7000 8t</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1374,6 +1268,38 @@
   </si>
   <si>
     <t>ちょっと上になる可能性がある</t>
+  </si>
+  <si>
+    <t>スペーサM3L40</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルミ2017 6t 300x300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オイレスw5f15-17n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベアリングφ6-12a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベアリングφ4-8a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペーサM3L14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベアリングφ6-10a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピンφ4L20</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1995,7 +1921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2098,11 +2024,54 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="55" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="55" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2141,46 +2110,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="55" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="55" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2192,7 +2121,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2541,47 +2470,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="6.375" customWidth="1"/>
-    <col min="10" max="10" width="10.625" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" s="9">
         <v>2021</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="65" t="s">
+      <c r="I1" s="73"/>
+      <c r="J1" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="66"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K1" s="81"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="47"/>
       <c r="C2" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79"/>
       <c r="J2" s="22" t="s">
         <v>98</v>
       </c>
@@ -2589,13 +2518,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="49"/>
       <c r="C3" s="50"/>
-      <c r="H3" s="75">
+      <c r="H3" s="55">
         <v>44287</v>
       </c>
-      <c r="I3" s="76"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H3),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2605,17 +2534,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="75">
+      <c r="H4" s="55">
         <v>44317</v>
       </c>
-      <c r="I4" s="76"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H4),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2625,17 +2554,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="55">
         <v>44348</v>
       </c>
-      <c r="I5" s="76"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H5),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2645,17 +2574,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="55">
         <v>44378</v>
       </c>
-      <c r="I6" s="76"/>
+      <c r="I6" s="56"/>
       <c r="J6" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H6),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2665,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
         <v>67</v>
       </c>
@@ -2673,10 +2602,10 @@
         <v>121</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="H7" s="75">
+      <c r="H7" s="55">
         <v>44409</v>
       </c>
-      <c r="I7" s="76"/>
+      <c r="I7" s="56"/>
       <c r="J7" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H7),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2686,13 +2615,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="H8" s="75">
+      <c r="H8" s="55">
         <v>44440</v>
       </c>
-      <c r="I8" s="76"/>
+      <c r="I8" s="56"/>
       <c r="J8" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H8),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2702,13 +2631,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="H9" s="75">
+      <c r="H9" s="55">
         <v>44470</v>
       </c>
-      <c r="I9" s="76"/>
+      <c r="I9" s="56"/>
       <c r="J9" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H9),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2718,13 +2647,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="H10" s="75">
+      <c r="H10" s="55">
         <v>44501</v>
       </c>
-      <c r="I10" s="76"/>
+      <c r="I10" s="56"/>
       <c r="J10" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H10),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2734,21 +2663,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="43">
         <f>SUM($F18:$F117)</f>
-        <v>65100</v>
+        <v>26502</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" s="75">
+        <v>124</v>
+      </c>
+      <c r="H11" s="55">
         <v>44531</v>
       </c>
-      <c r="I11" s="76"/>
+      <c r="I11" s="56"/>
       <c r="J11" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H11),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2758,18 +2687,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="44" t="s">
         <v>119</v>
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="75">
+        <v>125</v>
+      </c>
+      <c r="H12" s="55">
         <v>44562</v>
       </c>
-      <c r="I12" s="76"/>
+      <c r="I12" s="56"/>
       <c r="J12" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H12),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2779,13 +2708,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="H13" s="75">
+      <c r="H13" s="55">
         <v>44593</v>
       </c>
-      <c r="I13" s="76"/>
+      <c r="I13" s="56"/>
       <c r="J13" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H13),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2795,13 +2724,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="H14" s="75">
+      <c r="H14" s="55">
         <v>44621</v>
       </c>
-      <c r="I14" s="76"/>
+      <c r="I14" s="56"/>
       <c r="J14" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H14),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2811,55 +2740,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="69" t="s">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="77" t="s">
+      <c r="E16" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="77" t="s">
+      <c r="F16" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="71" t="s">
+      <c r="G16" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="79" t="s">
+      <c r="H16" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="80"/>
-      <c r="J16" s="58" t="s">
+      <c r="I16" s="60"/>
+      <c r="J16" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="59"/>
-    </row>
-    <row r="17" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="70"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="72"/>
+      <c r="K16" s="74"/>
+    </row>
+    <row r="17" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="66"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="41" t="s">
         <v>92</v>
       </c>
       <c r="I17" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="60"/>
-      <c r="K17" s="61"/>
-    </row>
-    <row r="18" spans="2:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="J17" s="75"/>
+      <c r="K17" s="76"/>
+    </row>
+    <row r="18" spans="2:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="18">
         <v>1</v>
       </c>
@@ -2881,41 +2810,39 @@
       </c>
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="74"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <v>2</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D19" s="33">
-        <v>1362</v>
+        <v>2570</v>
       </c>
       <c r="E19" s="33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="0"/>
-        <v>6810</v>
+        <v>2570</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H19" s="24"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="55"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J19" s="61"/>
+      <c r="K19" s="62"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="18">
         <v>3</v>
       </c>
-      <c r="C20" s="33" t="s">
-        <v>124</v>
-      </c>
+      <c r="C20" s="33"/>
       <c r="D20" s="34">
         <v>1898</v>
       </c>
@@ -2931,240 +2858,216 @@
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="55"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J20" s="61"/>
+      <c r="K20" s="62"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="12">
         <v>4</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="34">
-        <v>2312</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D21" s="34"/>
       <c r="E21" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" ref="F21:F84" si="1">D21*E21</f>
-        <v>4624</v>
+        <v>0</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="55"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J21" s="61"/>
+      <c r="K21" s="62"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="18">
         <v>5</v>
       </c>
-      <c r="C22" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="34">
-        <v>4266</v>
-      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="34">
         <v>1</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="1"/>
-        <v>4266</v>
+        <v>0</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="55"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J22" s="61"/>
+      <c r="K22" s="62"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <v>6</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="34">
-        <v>7</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D23" s="34"/>
       <c r="E23" s="34">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="1"/>
-        <v>252</v>
+        <f>D23*E23</f>
+        <v>0</v>
       </c>
       <c r="G23" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="55"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="18">
         <v>7</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="34">
-        <v>1490</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D24" s="34"/>
       <c r="E24" s="34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="1"/>
-        <v>1490</v>
+        <f>D24*E24</f>
+        <v>0</v>
       </c>
       <c r="G24" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="55"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <v>8</v>
       </c>
-      <c r="C25" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="34">
-        <v>7</v>
-      </c>
+      <c r="C25" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="34"/>
       <c r="E25" s="34">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="1"/>
-        <v>350</v>
+        <f>D25*E25</f>
+        <v>0</v>
       </c>
       <c r="G25" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H25" s="26"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="55"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="18">
         <v>9</v>
       </c>
-      <c r="C26" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="34">
-        <v>4</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="34">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="1"/>
-        <v>320</v>
+        <f>D26*E26</f>
+        <v>0</v>
       </c>
       <c r="G26" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="55"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J26" s="61"/>
+      <c r="K26" s="62"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <v>10</v>
       </c>
       <c r="C27" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="1">
-        <v>399</v>
-      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1">
         <v>3</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="1"/>
-        <v>1197</v>
+        <f>D27*E27</f>
+        <v>0</v>
       </c>
       <c r="G27" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="55"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="18">
         <v>11</v>
       </c>
-      <c r="C28" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="34">
-        <v>30</v>
-      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="34">
         <v>30</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="1"/>
-        <v>900</v>
+        <f>D28*E28</f>
+        <v>0</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="55"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J28" s="61"/>
+      <c r="K28" s="62"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <v>12</v>
       </c>
       <c r="C29" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="34">
-        <v>200</v>
-      </c>
+      <c r="D29" s="34"/>
       <c r="E29" s="34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="1"/>
-        <v>200</v>
+        <f>D29*E29</f>
+        <v>0</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H29" s="26"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="55"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J29" s="61"/>
+      <c r="K29" s="62"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="18">
         <v>13</v>
       </c>
-      <c r="C30" s="86" t="s">
-        <v>134</v>
+      <c r="C30" s="54" t="s">
+        <v>123</v>
       </c>
       <c r="D30" s="34">
         <v>667</v>
@@ -3173,7 +3076,7 @@
         <v>8</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="1"/>
+        <f>D30*E30</f>
         <v>5336</v>
       </c>
       <c r="G30" s="23" t="s">
@@ -3181,135 +3084,112 @@
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="55"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J30" s="61"/>
+      <c r="K30" s="62"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <v>14</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="34">
-        <v>5000</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D31" s="34"/>
       <c r="E31" s="34">
-        <v>1</v>
+        <f>3*4</f>
+        <v>12</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="1"/>
-        <v>5000</v>
+        <f>D31*E31</f>
+        <v>0</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H31" s="26"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="55"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J31" s="61"/>
+      <c r="K31" s="62"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="18">
         <v>15</v>
       </c>
-      <c r="C32" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="34">
-        <v>890</v>
-      </c>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="34">
         <v>1</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="1"/>
-        <v>890</v>
+        <f>D32*E32</f>
+        <v>0</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="55"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J32" s="61"/>
+      <c r="K32" s="62"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <v>16</v>
       </c>
-      <c r="C33" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="34">
-        <v>1379</v>
-      </c>
-      <c r="E33" s="34">
-        <v>1</v>
-      </c>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="4">
-        <f t="shared" si="1"/>
-        <v>1379</v>
+        <f>D33*E33</f>
+        <v>0</v>
       </c>
       <c r="G33" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="55"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J33" s="61"/>
+      <c r="K33" s="62"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="18">
         <v>17</v>
       </c>
-      <c r="C34" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="34">
-        <v>9460</v>
-      </c>
-      <c r="E34" s="34">
-        <v>1</v>
-      </c>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="4">
-        <f t="shared" si="1"/>
-        <v>9460</v>
+        <f>D34*E34</f>
+        <v>0</v>
       </c>
       <c r="G34" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H34" s="26"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="55"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J34" s="61"/>
+      <c r="K34" s="62"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <v>18</v>
       </c>
-      <c r="C35" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35" s="34">
-        <v>4030</v>
-      </c>
-      <c r="E35" s="34">
-        <v>1</v>
-      </c>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="4">
-        <f t="shared" si="1"/>
-        <v>4030</v>
+        <f>D35*E35</f>
+        <v>0</v>
       </c>
       <c r="G35" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H35" s="26"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="55"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J35" s="61"/>
+      <c r="K35" s="62"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="18">
         <v>19</v>
       </c>
@@ -3325,10 +3205,10 @@
       </c>
       <c r="H36" s="26"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="55"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J36" s="61"/>
+      <c r="K36" s="62"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <v>20</v>
       </c>
@@ -3344,10 +3224,10 @@
       </c>
       <c r="H37" s="26"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="55"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J37" s="61"/>
+      <c r="K37" s="62"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="18">
         <v>21</v>
       </c>
@@ -3363,10 +3243,10 @@
       </c>
       <c r="H38" s="26"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="55"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J38" s="61"/>
+      <c r="K38" s="62"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <v>22</v>
       </c>
@@ -3382,10 +3262,10 @@
       </c>
       <c r="H39" s="26"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="55"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J39" s="61"/>
+      <c r="K39" s="62"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="18">
         <v>23</v>
       </c>
@@ -3401,10 +3281,10 @@
       </c>
       <c r="H40" s="26"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="55"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J40" s="61"/>
+      <c r="K40" s="62"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <v>24</v>
       </c>
@@ -3420,10 +3300,10 @@
       </c>
       <c r="H41" s="26"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="55"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J41" s="61"/>
+      <c r="K41" s="62"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="18">
         <v>25</v>
       </c>
@@ -3439,10 +3319,10 @@
       </c>
       <c r="H42" s="26"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="55"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J42" s="61"/>
+      <c r="K42" s="62"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <v>26</v>
       </c>
@@ -3458,10 +3338,10 @@
       </c>
       <c r="H43" s="26"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="55"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J43" s="61"/>
+      <c r="K43" s="62"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="18">
         <v>27</v>
       </c>
@@ -3477,10 +3357,10 @@
       </c>
       <c r="H44" s="26"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="55"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J44" s="61"/>
+      <c r="K44" s="62"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <v>28</v>
       </c>
@@ -3496,10 +3376,10 @@
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="55"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J45" s="61"/>
+      <c r="K45" s="62"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="18">
         <v>29</v>
       </c>
@@ -3515,10 +3395,10 @@
       </c>
       <c r="H46" s="26"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="55"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J46" s="61"/>
+      <c r="K46" s="62"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <v>30</v>
       </c>
@@ -3534,10 +3414,10 @@
       </c>
       <c r="H47" s="26"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="55"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J47" s="61"/>
+      <c r="K47" s="62"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="18">
         <v>31</v>
       </c>
@@ -3553,10 +3433,10 @@
       </c>
       <c r="H48" s="26"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="55"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J48" s="61"/>
+      <c r="K48" s="62"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <v>32</v>
       </c>
@@ -3572,10 +3452,10 @@
       </c>
       <c r="H49" s="26"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="55"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J49" s="61"/>
+      <c r="K49" s="62"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="18">
         <v>33</v>
       </c>
@@ -3591,10 +3471,10 @@
       </c>
       <c r="H50" s="26"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="55"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J50" s="61"/>
+      <c r="K50" s="62"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <v>34</v>
       </c>
@@ -3610,10 +3490,10 @@
       </c>
       <c r="H51" s="26"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="55"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J51" s="61"/>
+      <c r="K51" s="62"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="18">
         <v>35</v>
       </c>
@@ -3629,10 +3509,10 @@
       </c>
       <c r="H52" s="26"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="55"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J52" s="61"/>
+      <c r="K52" s="62"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <v>36</v>
       </c>
@@ -3648,10 +3528,10 @@
       </c>
       <c r="H53" s="26"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="55"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J53" s="61"/>
+      <c r="K53" s="62"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="18">
         <v>37</v>
       </c>
@@ -3667,10 +3547,10 @@
       </c>
       <c r="H54" s="26"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="55"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J54" s="61"/>
+      <c r="K54" s="62"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <v>38</v>
       </c>
@@ -3686,10 +3566,10 @@
       </c>
       <c r="H55" s="26"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="55"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J55" s="61"/>
+      <c r="K55" s="62"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="18">
         <v>39</v>
       </c>
@@ -3705,10 +3585,10 @@
       </c>
       <c r="H56" s="26"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="55"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J56" s="61"/>
+      <c r="K56" s="62"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <v>40</v>
       </c>
@@ -3724,10 +3604,10 @@
       </c>
       <c r="H57" s="26"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="55"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J57" s="61"/>
+      <c r="K57" s="62"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="18">
         <v>41</v>
       </c>
@@ -3743,10 +3623,10 @@
       </c>
       <c r="H58" s="28"/>
       <c r="I58" s="29"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="55"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J58" s="61"/>
+      <c r="K58" s="62"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
         <v>42</v>
       </c>
@@ -3762,10 +3642,10 @@
       </c>
       <c r="H59" s="26"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="55"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J59" s="61"/>
+      <c r="K59" s="62"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="18">
         <v>43</v>
       </c>
@@ -3781,10 +3661,10 @@
       </c>
       <c r="H60" s="26"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="55"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J60" s="61"/>
+      <c r="K60" s="62"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <v>44</v>
       </c>
@@ -3800,10 +3680,10 @@
       </c>
       <c r="H61" s="26"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="55"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J61" s="61"/>
+      <c r="K61" s="62"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="18">
         <v>45</v>
       </c>
@@ -3819,10 +3699,10 @@
       </c>
       <c r="H62" s="26"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="55"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J62" s="61"/>
+      <c r="K62" s="62"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <v>46</v>
       </c>
@@ -3838,10 +3718,10 @@
       </c>
       <c r="H63" s="26"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="55"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J63" s="61"/>
+      <c r="K63" s="62"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="18">
         <v>47</v>
       </c>
@@ -3857,10 +3737,10 @@
       </c>
       <c r="H64" s="26"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="55"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J64" s="61"/>
+      <c r="K64" s="62"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <v>48</v>
       </c>
@@ -3876,10 +3756,10 @@
       </c>
       <c r="H65" s="26"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="55"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J65" s="61"/>
+      <c r="K65" s="62"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="18">
         <v>49</v>
       </c>
@@ -3895,10 +3775,10 @@
       </c>
       <c r="H66" s="26"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="55"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J66" s="61"/>
+      <c r="K66" s="62"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
         <v>50</v>
       </c>
@@ -3914,10 +3794,10 @@
       </c>
       <c r="H67" s="26"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="55"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J67" s="61"/>
+      <c r="K67" s="62"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="18">
         <v>51</v>
       </c>
@@ -3933,10 +3813,10 @@
       </c>
       <c r="H68" s="26"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="55"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J68" s="61"/>
+      <c r="K68" s="62"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <v>52</v>
       </c>
@@ -3952,10 +3832,10 @@
       </c>
       <c r="H69" s="26"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="55"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J69" s="61"/>
+      <c r="K69" s="62"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="18">
         <v>53</v>
       </c>
@@ -3971,10 +3851,10 @@
       </c>
       <c r="H70" s="26"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="55"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J70" s="61"/>
+      <c r="K70" s="62"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
         <v>54</v>
       </c>
@@ -3990,10 +3870,10 @@
       </c>
       <c r="H71" s="26"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="55"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J71" s="61"/>
+      <c r="K71" s="62"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="18">
         <v>55</v>
       </c>
@@ -4009,10 +3889,10 @@
       </c>
       <c r="H72" s="26"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="55"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J72" s="61"/>
+      <c r="K72" s="62"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
         <v>56</v>
       </c>
@@ -4028,10 +3908,10 @@
       </c>
       <c r="H73" s="26"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="55"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J73" s="61"/>
+      <c r="K73" s="62"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="18">
         <v>57</v>
       </c>
@@ -4047,10 +3927,10 @@
       </c>
       <c r="H74" s="26"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="55"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J74" s="61"/>
+      <c r="K74" s="62"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
         <v>58</v>
       </c>
@@ -4066,10 +3946,10 @@
       </c>
       <c r="H75" s="26"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="54"/>
-      <c r="K75" s="55"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J75" s="61"/>
+      <c r="K75" s="62"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="18">
         <v>59</v>
       </c>
@@ -4085,10 +3965,10 @@
       </c>
       <c r="H76" s="26"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="55"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J76" s="61"/>
+      <c r="K76" s="62"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
         <v>60</v>
       </c>
@@ -4104,10 +3984,10 @@
       </c>
       <c r="H77" s="26"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="55"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J77" s="61"/>
+      <c r="K77" s="62"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="18">
         <v>61</v>
       </c>
@@ -4123,10 +4003,10 @@
       </c>
       <c r="H78" s="26"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="55"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J78" s="61"/>
+      <c r="K78" s="62"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
         <v>62</v>
       </c>
@@ -4142,10 +4022,10 @@
       </c>
       <c r="H79" s="26"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="55"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J79" s="61"/>
+      <c r="K79" s="62"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="18">
         <v>63</v>
       </c>
@@ -4161,10 +4041,10 @@
       </c>
       <c r="H80" s="26"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="55"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J80" s="61"/>
+      <c r="K80" s="62"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
         <v>64</v>
       </c>
@@ -4180,10 +4060,10 @@
       </c>
       <c r="H81" s="26"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="54"/>
-      <c r="K81" s="55"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J81" s="61"/>
+      <c r="K81" s="62"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="18">
         <v>65</v>
       </c>
@@ -4199,10 +4079,10 @@
       </c>
       <c r="H82" s="26"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="54"/>
-      <c r="K82" s="55"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J82" s="61"/>
+      <c r="K82" s="62"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
         <v>66</v>
       </c>
@@ -4218,10 +4098,10 @@
       </c>
       <c r="H83" s="26"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="54"/>
-      <c r="K83" s="55"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J83" s="61"/>
+      <c r="K83" s="62"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="18">
         <v>67</v>
       </c>
@@ -4237,10 +4117,10 @@
       </c>
       <c r="H84" s="26"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="54"/>
-      <c r="K84" s="55"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J84" s="61"/>
+      <c r="K84" s="62"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
         <v>68</v>
       </c>
@@ -4256,10 +4136,10 @@
       </c>
       <c r="H85" s="26"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="54"/>
-      <c r="K85" s="55"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J85" s="61"/>
+      <c r="K85" s="62"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="18">
         <v>69</v>
       </c>
@@ -4275,10 +4155,10 @@
       </c>
       <c r="H86" s="26"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="54"/>
-      <c r="K86" s="55"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J86" s="61"/>
+      <c r="K86" s="62"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="12">
         <v>70</v>
       </c>
@@ -4294,10 +4174,10 @@
       </c>
       <c r="H87" s="26"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="54"/>
-      <c r="K87" s="55"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J87" s="61"/>
+      <c r="K87" s="62"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" s="18">
         <v>71</v>
       </c>
@@ -4313,10 +4193,10 @@
       </c>
       <c r="H88" s="26"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="54"/>
-      <c r="K88" s="55"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J88" s="61"/>
+      <c r="K88" s="62"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
         <v>72</v>
       </c>
@@ -4332,10 +4212,10 @@
       </c>
       <c r="H89" s="26"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="54"/>
-      <c r="K89" s="55"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J89" s="61"/>
+      <c r="K89" s="62"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" s="18">
         <v>73</v>
       </c>
@@ -4351,10 +4231,10 @@
       </c>
       <c r="H90" s="26"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="54"/>
-      <c r="K90" s="55"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J90" s="61"/>
+      <c r="K90" s="62"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B91" s="12">
         <v>74</v>
       </c>
@@ -4370,10 +4250,10 @@
       </c>
       <c r="H91" s="26"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="54"/>
-      <c r="K91" s="55"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J91" s="61"/>
+      <c r="K91" s="62"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" s="18">
         <v>75</v>
       </c>
@@ -4389,10 +4269,10 @@
       </c>
       <c r="H92" s="26"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="54"/>
-      <c r="K92" s="55"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J92" s="61"/>
+      <c r="K92" s="62"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" s="12">
         <v>76</v>
       </c>
@@ -4408,10 +4288,10 @@
       </c>
       <c r="H93" s="26"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="54"/>
-      <c r="K93" s="55"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J93" s="61"/>
+      <c r="K93" s="62"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="18">
         <v>77</v>
       </c>
@@ -4427,10 +4307,10 @@
       </c>
       <c r="H94" s="26"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="54"/>
-      <c r="K94" s="55"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J94" s="61"/>
+      <c r="K94" s="62"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" s="12">
         <v>78</v>
       </c>
@@ -4446,10 +4326,10 @@
       </c>
       <c r="H95" s="26"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="55"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J95" s="61"/>
+      <c r="K95" s="62"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="18">
         <v>79</v>
       </c>
@@ -4465,10 +4345,10 @@
       </c>
       <c r="H96" s="26"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="54"/>
-      <c r="K96" s="55"/>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J96" s="61"/>
+      <c r="K96" s="62"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="12">
         <v>80</v>
       </c>
@@ -4484,10 +4364,10 @@
       </c>
       <c r="H97" s="26"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="54"/>
-      <c r="K97" s="55"/>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J97" s="61"/>
+      <c r="K97" s="62"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="18">
         <v>81</v>
       </c>
@@ -4503,10 +4383,10 @@
       </c>
       <c r="H98" s="26"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="54"/>
-      <c r="K98" s="55"/>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J98" s="61"/>
+      <c r="K98" s="62"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="12">
         <v>82</v>
       </c>
@@ -4522,10 +4402,10 @@
       </c>
       <c r="H99" s="26"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="54"/>
-      <c r="K99" s="55"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J99" s="61"/>
+      <c r="K99" s="62"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="18">
         <v>83</v>
       </c>
@@ -4541,10 +4421,10 @@
       </c>
       <c r="H100" s="26"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="54"/>
-      <c r="K100" s="55"/>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J100" s="61"/>
+      <c r="K100" s="62"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="12">
         <v>84</v>
       </c>
@@ -4560,10 +4440,10 @@
       </c>
       <c r="H101" s="26"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="54"/>
-      <c r="K101" s="55"/>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J101" s="61"/>
+      <c r="K101" s="62"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="18">
         <v>85</v>
       </c>
@@ -4579,10 +4459,10 @@
       </c>
       <c r="H102" s="26"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="54"/>
-      <c r="K102" s="55"/>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J102" s="61"/>
+      <c r="K102" s="62"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" s="12">
         <v>86</v>
       </c>
@@ -4598,10 +4478,10 @@
       </c>
       <c r="H103" s="26"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="54"/>
-      <c r="K103" s="55"/>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J103" s="61"/>
+      <c r="K103" s="62"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" s="18">
         <v>87</v>
       </c>
@@ -4617,10 +4497,10 @@
       </c>
       <c r="H104" s="26"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="54"/>
-      <c r="K104" s="55"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J104" s="61"/>
+      <c r="K104" s="62"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B105" s="12">
         <v>88</v>
       </c>
@@ -4636,10 +4516,10 @@
       </c>
       <c r="H105" s="26"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="54"/>
-      <c r="K105" s="55"/>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J105" s="61"/>
+      <c r="K105" s="62"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B106" s="18">
         <v>89</v>
       </c>
@@ -4655,10 +4535,10 @@
       </c>
       <c r="H106" s="26"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="54"/>
-      <c r="K106" s="55"/>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J106" s="61"/>
+      <c r="K106" s="62"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B107" s="12">
         <v>90</v>
       </c>
@@ -4674,10 +4554,10 @@
       </c>
       <c r="H107" s="26"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="54"/>
-      <c r="K107" s="55"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J107" s="61"/>
+      <c r="K107" s="62"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B108" s="18">
         <v>91</v>
       </c>
@@ -4693,10 +4573,10 @@
       </c>
       <c r="H108" s="26"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="54"/>
-      <c r="K108" s="55"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J108" s="61"/>
+      <c r="K108" s="62"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B109" s="12">
         <v>92</v>
       </c>
@@ -4712,10 +4592,10 @@
       </c>
       <c r="H109" s="26"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="55"/>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J109" s="61"/>
+      <c r="K109" s="62"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B110" s="18">
         <v>93</v>
       </c>
@@ -4731,10 +4611,10 @@
       </c>
       <c r="H110" s="26"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="54"/>
-      <c r="K110" s="55"/>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J110" s="61"/>
+      <c r="K110" s="62"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B111" s="12">
         <v>94</v>
       </c>
@@ -4750,10 +4630,10 @@
       </c>
       <c r="H111" s="26"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="55"/>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J111" s="61"/>
+      <c r="K111" s="62"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B112" s="18">
         <v>95</v>
       </c>
@@ -4769,10 +4649,10 @@
       </c>
       <c r="H112" s="26"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="54"/>
-      <c r="K112" s="55"/>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J112" s="61"/>
+      <c r="K112" s="62"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" s="12">
         <v>96</v>
       </c>
@@ -4788,10 +4668,10 @@
       </c>
       <c r="H113" s="26"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="54"/>
-      <c r="K113" s="55"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J113" s="61"/>
+      <c r="K113" s="62"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B114" s="18">
         <v>97</v>
       </c>
@@ -4807,10 +4687,10 @@
       </c>
       <c r="H114" s="26"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="54"/>
-      <c r="K114" s="55"/>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J114" s="61"/>
+      <c r="K114" s="62"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B115" s="12">
         <v>98</v>
       </c>
@@ -4826,10 +4706,10 @@
       </c>
       <c r="H115" s="26"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="54"/>
-      <c r="K115" s="55"/>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J115" s="61"/>
+      <c r="K115" s="62"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B116" s="18">
         <v>99</v>
       </c>
@@ -4845,10 +4725,10 @@
       </c>
       <c r="H116" s="26"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="54"/>
-      <c r="K116" s="55"/>
-    </row>
-    <row r="117" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J116" s="61"/>
+      <c r="K116" s="62"/>
+    </row>
+    <row r="117" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B117" s="12">
         <v>100</v>
       </c>
@@ -4864,109 +4744,11 @@
       </c>
       <c r="H117" s="31"/>
       <c r="I117" s="32"/>
-      <c r="J117" s="56"/>
-      <c r="K117" s="57"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="J90:K90"/>
     <mergeCell ref="J115:K115"/>
     <mergeCell ref="J116:K116"/>
     <mergeCell ref="J117:K117"/>
@@ -4991,6 +4773,104 @@
     <mergeCell ref="J100:K100"/>
     <mergeCell ref="J101:K101"/>
     <mergeCell ref="J102:K102"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5038,29 +4918,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>49</v>
       </c>
@@ -5070,7 +4950,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
@@ -5084,7 +4964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>51</v>
       </c>
@@ -5098,7 +4978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>52</v>
       </c>
@@ -5112,7 +4992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
@@ -5126,7 +5006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
@@ -5134,7 +5014,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
@@ -5142,7 +5022,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>76</v>
       </c>
@@ -5156,7 +5036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>69</v>
       </c>
@@ -5170,7 +5050,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>70</v>
       </c>
@@ -5184,7 +5064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>71</v>
       </c>
@@ -5198,7 +5078,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
@@ -5206,7 +5086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
         <v>85</v>
       </c>
@@ -5217,7 +5097,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>86</v>
       </c>
@@ -5228,7 +5108,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,7 +5119,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>88</v>
       </c>
@@ -5250,7 +5130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>89</v>
       </c>
@@ -5261,7 +5141,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>90</v>
       </c>
@@ -5272,7 +5152,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>91</v>
       </c>
@@ -5283,7 +5163,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F24" s="1" t="s">
         <v>20</v>
       </c>
@@ -5291,7 +5171,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F25" s="1" t="s">
         <v>21</v>
       </c>
@@ -5299,7 +5179,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
         <v>95</v>
       </c>
@@ -5310,7 +5190,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>96</v>
       </c>
@@ -5321,7 +5201,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>97</v>
       </c>
@@ -5332,8 +5212,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="3:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" s="19" t="s">
         <v>102</v>
       </c>
@@ -5344,43 +5224,43 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="3:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C32" s="45" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="46" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="46" t="s">
         <v>118</v>
       </c>
@@ -5399,70 +5279,70 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="81" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-    </row>
-    <row r="5" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="82" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+    </row>
+    <row r="5" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="34.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="85"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5476,53 +5356,53 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="93" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="82" t="s">
+    <row r="10" spans="2:13" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>112</v>
       </c>

--- a/決算用予算会議入力フォーマット_2021 .xlsx
+++ b/決算用予算会議入力フォーマット_2021 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A45F1E-924E-45A4-A329-F8995694C3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F878DB37-475A-439B-B50D-86893D209EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1344" yWindow="432" windowWidth="17280" windowHeight="10752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="924" yWindow="900" windowWidth="14448" windowHeight="10752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="入力シート" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="166">
   <si>
     <t>学年</t>
     <rPh sb="0" eb="2">
@@ -1256,10 +1256,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RS-380PHモーター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大まか，</t>
     <rPh sb="0" eb="1">
       <t>オオ</t>
@@ -1270,35 +1266,179 @@
     <t>ちょっと上になる可能性がある</t>
   </si>
   <si>
-    <t>スペーサM3L40</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルミ2017 6t 300x300</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オイレスw5f15-17n</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ベアリングφ6-12a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ベアリングφ4-8a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スペーサM3L14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ベアリングφ6-10a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ピンφ4L20</t>
+    <t>RS-380PH モータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タミヤダンパ（リヤ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下板 3t 170x197.9</t>
+    <rPh sb="0" eb="2">
+      <t>シタイタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルミ2017 8t 200x300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルミ2017 4t 300x300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルミ2017 3t 300x500</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルミ7075 3t 300x300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルミ7075 4t 300x300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルミ7075 8t 200x300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルミ7075 12t 200x200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジュラコン 5t 245x495</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジュラコン 8t 256x245</t>
+  </si>
+  <si>
+    <t>ポリカ 3t 250x220</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポリカ 5t 200x270</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガラエポ 3t 100x100</t>
+  </si>
+  <si>
+    <t>ABS樹脂 4t 495x495</t>
+  </si>
+  <si>
+    <t>オイレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベアリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不明</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-12a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-15a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-8a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-9a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-10a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-15-17a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-15-17n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-12-14n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-6-12a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-8-12a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.5-5-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペーサ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M3L60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M4L35</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄銅M0.5Z80</t>
+    <rPh sb="0" eb="2">
+      <t>オウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピニオンM0.5Z8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドライメット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w3f6-8a（オイレス）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねじ，ボルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他は不明</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイロンナット</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1405,7 +1545,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1917,11 +2057,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2015,63 +2175,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="55" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="55" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2110,6 +2225,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="55" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="55" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2121,9 +2276,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2470,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2495,22 +2657,22 @@
       <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="80" t="s">
+      <c r="I1" s="58"/>
+      <c r="J1" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="81"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="47"/>
       <c r="C2" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="79"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
       <c r="J2" s="22" t="s">
         <v>98</v>
       </c>
@@ -2521,10 +2683,10 @@
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="49"/>
       <c r="C3" s="50"/>
-      <c r="H3" s="55">
+      <c r="H3" s="75">
         <v>44287</v>
       </c>
-      <c r="I3" s="56"/>
+      <c r="I3" s="76"/>
       <c r="J3" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H3),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2541,10 +2703,10 @@
       <c r="C4" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="75">
         <v>44317</v>
       </c>
-      <c r="I4" s="56"/>
+      <c r="I4" s="76"/>
       <c r="J4" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H4),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2561,10 +2723,10 @@
       <c r="C5" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="75">
         <v>44348</v>
       </c>
-      <c r="I5" s="56"/>
+      <c r="I5" s="76"/>
       <c r="J5" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H5),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2581,10 +2743,10 @@
       <c r="C6" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="75">
         <v>44378</v>
       </c>
-      <c r="I6" s="56"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H6),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2602,10 +2764,10 @@
         <v>121</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="H7" s="55">
+      <c r="H7" s="75">
         <v>44409</v>
       </c>
-      <c r="I7" s="56"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H7),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2618,10 +2780,10 @@
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="H8" s="55">
+      <c r="H8" s="75">
         <v>44440</v>
       </c>
-      <c r="I8" s="56"/>
+      <c r="I8" s="76"/>
       <c r="J8" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H8),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2634,10 +2796,10 @@
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="H9" s="55">
+      <c r="H9" s="75">
         <v>44470</v>
       </c>
-      <c r="I9" s="56"/>
+      <c r="I9" s="76"/>
       <c r="J9" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H9),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2650,10 +2812,10 @@
     <row r="10" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="H10" s="55">
+      <c r="H10" s="75">
         <v>44501</v>
       </c>
-      <c r="I10" s="56"/>
+      <c r="I10" s="76"/>
       <c r="J10" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H10),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2669,15 +2831,15 @@
       </c>
       <c r="C11" s="43">
         <f>SUM($F18:$F117)</f>
-        <v>26502</v>
+        <v>75345</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="55">
+        <v>123</v>
+      </c>
+      <c r="H11" s="75">
         <v>44531</v>
       </c>
-      <c r="I11" s="56"/>
+      <c r="I11" s="76"/>
       <c r="J11" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H11),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2691,14 +2853,14 @@
       <c r="B12" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" s="55">
+        <v>124</v>
+      </c>
+      <c r="H12" s="75">
         <v>44562</v>
       </c>
-      <c r="I12" s="56"/>
+      <c r="I12" s="76"/>
       <c r="J12" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H12),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2711,10 +2873,10 @@
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="H13" s="55">
+      <c r="H13" s="75">
         <v>44593</v>
       </c>
-      <c r="I13" s="56"/>
+      <c r="I13" s="76"/>
       <c r="J13" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H13),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2727,10 +2889,10 @@
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="H14" s="55">
+      <c r="H14" s="75">
         <v>44621</v>
       </c>
-      <c r="I14" s="56"/>
+      <c r="I14" s="76"/>
       <c r="J14" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H14),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2745,165 +2907,173 @@
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="67" t="s">
+      <c r="G16" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="60"/>
-      <c r="J16" s="73" t="s">
+      <c r="I16" s="80"/>
+      <c r="J16" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="74"/>
+      <c r="K16" s="59"/>
     </row>
     <row r="17" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="66"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="68"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="41" t="s">
         <v>92</v>
       </c>
       <c r="I17" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="75"/>
-      <c r="K17" s="76"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="61"/>
     </row>
     <row r="18" spans="2:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="18">
         <v>1</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="86" t="s">
         <v>122</v>
       </c>
       <c r="D18" s="33">
         <v>7400</v>
       </c>
       <c r="E18" s="33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="40">
-        <f t="shared" ref="F18:F20" si="0">D18*E18</f>
-        <v>14800</v>
+        <f t="shared" ref="F18:F58" si="0">D18*E18</f>
+        <v>0</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>100</v>
       </c>
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="74"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <v>2</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D19" s="33">
-        <v>2570</v>
+        <v>667</v>
       </c>
       <c r="E19" s="33">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
+        <v>8</v>
+      </c>
+      <c r="F19" s="40">
         <f t="shared" si="0"/>
-        <v>2570</v>
+        <v>5336</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H19" s="24"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="62"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="55"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="18">
         <v>3</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="33" t="s">
+        <v>126</v>
+      </c>
       <c r="D20" s="34">
-        <v>1898</v>
+        <v>6550</v>
       </c>
       <c r="E20" s="34">
         <v>2</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="40">
         <f t="shared" si="0"/>
-        <v>3796</v>
+        <v>13100</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="62"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="55"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="12">
         <v>4</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="34"/>
+        <v>127</v>
+      </c>
+      <c r="D21" s="34">
+        <v>417</v>
+      </c>
       <c r="E21" s="34">
-        <v>4</v>
-      </c>
-      <c r="F21" s="4">
-        <f t="shared" ref="F21:F84" si="1">D21*E21</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F21" s="40">
+        <f t="shared" si="0"/>
+        <v>417</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="62"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="55"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="18">
         <v>5</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="34">
+        <v>2280</v>
+      </c>
       <c r="E22" s="34">
         <v>1</v>
       </c>
-      <c r="F22" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F22" s="40">
+        <f t="shared" si="0"/>
+        <v>2280</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="55"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
@@ -2912,263 +3082,298 @@
       <c r="C23" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="34">
+        <v>1700</v>
+      </c>
       <c r="E23" s="34">
-        <v>4</v>
-      </c>
-      <c r="F23" s="4">
-        <f>D23*E23</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F23" s="40">
+        <f t="shared" si="0"/>
+        <v>1700</v>
       </c>
       <c r="G23" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="55"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="18">
         <v>7</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="34">
+        <v>2040</v>
+      </c>
       <c r="E24" s="34">
-        <v>4</v>
-      </c>
-      <c r="F24" s="4">
-        <f>D24*E24</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F24" s="40">
+        <f t="shared" si="0"/>
+        <v>2040</v>
       </c>
       <c r="G24" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="55"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <v>8</v>
       </c>
-      <c r="C25" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="34"/>
+      <c r="C25" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3000</v>
+      </c>
       <c r="E25" s="34">
-        <v>8</v>
-      </c>
-      <c r="F25" s="4">
-        <f>D25*E25</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F25" s="40">
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
       <c r="G25" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H25" s="26"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="55"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="18">
         <v>9</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="34"/>
+      <c r="C26" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="34">
+        <v>3020</v>
+      </c>
       <c r="E26" s="34">
-        <v>12</v>
-      </c>
-      <c r="F26" s="4">
-        <f>D26*E26</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F26" s="40">
+        <f t="shared" si="0"/>
+        <v>3020</v>
       </c>
       <c r="G26" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="62"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="55"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <v>10</v>
       </c>
-      <c r="C27" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="1"/>
+      <c r="C27" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="34">
+        <v>6040</v>
+      </c>
       <c r="E27" s="1">
-        <v>3</v>
-      </c>
-      <c r="F27" s="4">
-        <f>D27*E27</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F27" s="40">
+        <f t="shared" si="0"/>
+        <v>6040</v>
       </c>
       <c r="G27" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="62"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="55"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="18">
         <v>11</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="C28" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="34">
+        <v>4030</v>
+      </c>
       <c r="E28" s="34">
-        <v>30</v>
-      </c>
-      <c r="F28" s="4">
-        <f>D28*E28</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F28" s="40">
+        <f t="shared" si="0"/>
+        <v>4030</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="62"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="55"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <v>12</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="34"/>
+        <v>135</v>
+      </c>
+      <c r="D29" s="34">
+        <v>3135</v>
+      </c>
       <c r="E29" s="34">
-        <v>4</v>
-      </c>
-      <c r="F29" s="4">
-        <f>D29*E29</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F29" s="40">
+        <f t="shared" si="0"/>
+        <v>6270</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H29" s="26"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="62"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="55"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="18">
         <v>13</v>
       </c>
-      <c r="C30" s="54" t="s">
-        <v>123</v>
+      <c r="C30" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="D30" s="34">
-        <v>667</v>
+        <v>1573</v>
       </c>
       <c r="E30" s="34">
-        <v>8</v>
-      </c>
-      <c r="F30" s="4">
-        <f>D30*E30</f>
-        <v>5336</v>
+        <v>1</v>
+      </c>
+      <c r="F30" s="40">
+        <f t="shared" si="0"/>
+        <v>1573</v>
       </c>
       <c r="G30" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="62"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="55"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <v>14</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="34"/>
+        <v>137</v>
+      </c>
+      <c r="D31" s="34">
+        <v>524</v>
+      </c>
       <c r="E31" s="34">
-        <f>3*4</f>
-        <v>12</v>
-      </c>
-      <c r="F31" s="4">
-        <f>D31*E31</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F31" s="40">
+        <f t="shared" si="0"/>
+        <v>1048</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H31" s="26"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="62"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="55"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="18">
         <v>15</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
+      <c r="C32" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="34">
+        <v>804</v>
+      </c>
       <c r="E32" s="34">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4">
-        <f>D32*E32</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F32" s="40">
+        <f t="shared" si="0"/>
+        <v>1608</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="62"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="55"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <v>16</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="4">
-        <f>D33*E33</f>
-        <v>0</v>
+      <c r="C33" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="34">
+        <v>511</v>
+      </c>
+      <c r="E33" s="34">
+        <v>1</v>
+      </c>
+      <c r="F33" s="40">
+        <f t="shared" si="0"/>
+        <v>511</v>
       </c>
       <c r="G33" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="62"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="55"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="18">
         <v>17</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="4">
-        <f>D34*E34</f>
-        <v>0</v>
+      <c r="C34" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="34">
+        <v>2810</v>
+      </c>
+      <c r="E34" s="34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="40">
+        <f t="shared" si="0"/>
+        <v>2810</v>
       </c>
       <c r="G34" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H34" s="26"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="62"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="55"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
@@ -3177,8 +3382,8 @@
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
       <c r="E35" s="34"/>
-      <c r="F35" s="4">
-        <f>D35*E35</f>
+      <c r="F35" s="40">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G35" s="23" t="s">
@@ -3186,37 +3391,48 @@
       </c>
       <c r="H35" s="26"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="62"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="55"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="18">
         <v>19</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C36" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="34">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="34">
+        <v>1</v>
+      </c>
+      <c r="F36" s="40">
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H36" s="26"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="62"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="55"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <v>20</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="4">
-        <f t="shared" si="1"/>
+      <c r="C37" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="34">
+        <v>4</v>
+      </c>
+      <c r="F37" s="40">
         <v>0</v>
       </c>
       <c r="G37" s="23" t="s">
@@ -3224,18 +3440,23 @@
       </c>
       <c r="H37" s="26"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="62"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="55"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="18">
         <v>21</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="4">
-        <f t="shared" si="1"/>
+      <c r="C38" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="34">
+        <v>4</v>
+      </c>
+      <c r="F38" s="40">
         <v>0</v>
       </c>
       <c r="G38" s="23" t="s">
@@ -3243,18 +3464,23 @@
       </c>
       <c r="H38" s="26"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="62"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="55"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <v>22</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="4">
-        <f t="shared" si="1"/>
+      <c r="C39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="34">
+        <v>16</v>
+      </c>
+      <c r="F39" s="40">
         <v>0</v>
       </c>
       <c r="G39" s="23" t="s">
@@ -3262,18 +3488,23 @@
       </c>
       <c r="H39" s="26"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="62"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="55"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="18">
         <v>23</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="4">
-        <f t="shared" si="1"/>
+      <c r="C40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="34">
+        <v>16</v>
+      </c>
+      <c r="F40" s="40">
         <v>0</v>
       </c>
       <c r="G40" s="23" t="s">
@@ -3281,18 +3512,23 @@
       </c>
       <c r="H40" s="26"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="62"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="55"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <v>24</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="4">
-        <f t="shared" si="1"/>
+      <c r="C41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="34">
+        <v>4</v>
+      </c>
+      <c r="F41" s="40">
         <v>0</v>
       </c>
       <c r="G41" s="23" t="s">
@@ -3300,18 +3536,23 @@
       </c>
       <c r="H41" s="26"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="62"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="55"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="18">
         <v>25</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="4">
-        <f t="shared" si="1"/>
+      <c r="C42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="34">
+        <v>16</v>
+      </c>
+      <c r="F42" s="40">
         <v>0</v>
       </c>
       <c r="G42" s="23" t="s">
@@ -3319,18 +3560,17 @@
       </c>
       <c r="H42" s="26"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="62"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="55"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <v>26</v>
       </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
       <c r="E43" s="34"/>
-      <c r="F43" s="4">
-        <f t="shared" si="1"/>
+      <c r="F43" s="40">
         <v>0</v>
       </c>
       <c r="G43" s="23" t="s">
@@ -3338,18 +3578,19 @@
       </c>
       <c r="H43" s="26"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="62"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="55"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="18">
         <v>27</v>
       </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
+      <c r="C44" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="34"/>
-      <c r="F44" s="4">
-        <f t="shared" si="1"/>
+      <c r="F44" s="40">
         <v>0</v>
       </c>
       <c r="G44" s="23" t="s">
@@ -3357,18 +3598,23 @@
       </c>
       <c r="H44" s="26"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="62"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="55"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <v>28</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="4">
-        <f t="shared" si="1"/>
+      <c r="C45" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="34">
+        <v>4</v>
+      </c>
+      <c r="F45" s="40">
         <v>0</v>
       </c>
       <c r="G45" s="23" t="s">
@@ -3376,18 +3622,23 @@
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="62"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="55"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="18">
         <v>29</v>
       </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="4">
-        <f t="shared" si="1"/>
+      <c r="C46" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="34">
+        <v>2</v>
+      </c>
+      <c r="F46" s="40">
         <v>0</v>
       </c>
       <c r="G46" s="23" t="s">
@@ -3395,18 +3646,23 @@
       </c>
       <c r="H46" s="26"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="62"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="55"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <v>30</v>
       </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="4">
-        <f t="shared" si="1"/>
+      <c r="C47" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="34">
+        <v>4</v>
+      </c>
+      <c r="F47" s="40">
         <v>0</v>
       </c>
       <c r="G47" s="23" t="s">
@@ -3414,18 +3670,23 @@
       </c>
       <c r="H47" s="26"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="62"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="55"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="18">
         <v>31</v>
       </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="4">
-        <f t="shared" si="1"/>
+      <c r="C48" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="34">
+        <v>2</v>
+      </c>
+      <c r="F48" s="40">
         <v>0</v>
       </c>
       <c r="G48" s="23" t="s">
@@ -3433,18 +3694,23 @@
       </c>
       <c r="H48" s="26"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="62"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="55"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <v>32</v>
       </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="4">
-        <f t="shared" si="1"/>
+      <c r="C49" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="34">
+        <v>8</v>
+      </c>
+      <c r="F49" s="40">
         <v>0</v>
       </c>
       <c r="G49" s="23" t="s">
@@ -3452,8 +3718,8 @@
       </c>
       <c r="H49" s="26"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="62"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="55"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="18">
@@ -3462,8 +3728,8 @@
       <c r="C50" s="34"/>
       <c r="D50" s="34"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="4">
-        <f t="shared" si="1"/>
+      <c r="F50" s="40">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G50" s="23" t="s">
@@ -3471,18 +3737,20 @@
       </c>
       <c r="H50" s="26"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="62"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="55"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <v>34</v>
       </c>
-      <c r="C51" s="34"/>
+      <c r="C51" s="34" t="s">
+        <v>155</v>
+      </c>
       <c r="D51" s="34"/>
       <c r="E51" s="34"/>
-      <c r="F51" s="4">
-        <f t="shared" si="1"/>
+      <c r="F51" s="40">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G51" s="23" t="s">
@@ -3490,56 +3758,67 @@
       </c>
       <c r="H51" s="26"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="62"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="55"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="18">
         <v>35</v>
       </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C52" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="34">
+        <v>4590</v>
+      </c>
+      <c r="E52" s="34">
+        <v>1</v>
+      </c>
+      <c r="F52" s="40">
+        <f t="shared" si="0"/>
+        <v>4590</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H52" s="26"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="62"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="55"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <v>36</v>
       </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C53" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="34">
+        <v>2990</v>
+      </c>
+      <c r="E53" s="34">
+        <v>1</v>
+      </c>
+      <c r="F53" s="40">
+        <f t="shared" si="0"/>
+        <v>2990</v>
       </c>
       <c r="G53" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H53" s="26"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="62"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="55"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="18">
         <v>37</v>
       </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="4">
-        <f t="shared" si="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="40">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G54" s="23" t="s">
@@ -3547,27 +3826,33 @@
       </c>
       <c r="H54" s="26"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="61"/>
-      <c r="K54" s="62"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="55"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <v>38</v>
       </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C55" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" s="34">
+        <v>1792</v>
+      </c>
+      <c r="E55" s="34">
+        <v>1</v>
+      </c>
+      <c r="F55" s="40">
+        <f t="shared" si="0"/>
+        <v>1792</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H55" s="26"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="62"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="55"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="18">
@@ -3576,8 +3861,8 @@
       <c r="C56" s="34"/>
       <c r="D56" s="34"/>
       <c r="E56" s="34"/>
-      <c r="F56" s="4">
-        <f t="shared" si="1"/>
+      <c r="F56" s="40">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G56" s="23" t="s">
@@ -3585,46 +3870,58 @@
       </c>
       <c r="H56" s="26"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="62"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="55"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <v>40</v>
       </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C57" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="34">
+        <v>759</v>
+      </c>
+      <c r="E57" s="34">
+        <v>2</v>
+      </c>
+      <c r="F57" s="40">
+        <f t="shared" si="0"/>
+        <v>1518</v>
       </c>
       <c r="G57" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H57" s="26"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="62"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="55"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="18">
         <v>41</v>
       </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C58" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="34">
+        <v>250</v>
+      </c>
+      <c r="E58" s="34">
+        <v>8</v>
+      </c>
+      <c r="F58" s="40">
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="G58" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H58" s="28"/>
       <c r="I58" s="29"/>
-      <c r="J58" s="61"/>
-      <c r="K58" s="62"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="55"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
@@ -3634,7 +3931,7 @@
       <c r="D59" s="34"/>
       <c r="E59" s="34"/>
       <c r="F59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F21:F84" si="1">D59*E59</f>
         <v>0</v>
       </c>
       <c r="G59" s="23" t="s">
@@ -3642,14 +3939,16 @@
       </c>
       <c r="H59" s="26"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="62"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="55"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="18">
         <v>43</v>
       </c>
-      <c r="C60" s="34"/>
+      <c r="C60" s="34" t="s">
+        <v>161</v>
+      </c>
       <c r="D60" s="34"/>
       <c r="E60" s="34"/>
       <c r="F60" s="4">
@@ -3661,27 +3960,33 @@
       </c>
       <c r="H60" s="26"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="61"/>
-      <c r="K60" s="62"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="55"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <v>44</v>
       </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
+      <c r="C61" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="34">
+        <v>34</v>
+      </c>
+      <c r="E61" s="34">
+        <v>3</v>
+      </c>
       <c r="F61" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G61" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H61" s="26"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="62"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="55"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="18">
@@ -3699,33 +4004,42 @@
       </c>
       <c r="H62" s="26"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="62"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="55"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <v>46</v>
       </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
+      <c r="C63" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63" s="34">
+        <f>1028+719*4+409*3</f>
+        <v>5131</v>
+      </c>
+      <c r="E63" s="34">
+        <v>1</v>
+      </c>
       <c r="F63" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5131</v>
       </c>
       <c r="G63" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H63" s="26"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="61"/>
-      <c r="K63" s="62"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="55"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="18">
         <v>47</v>
       </c>
-      <c r="C64" s="34"/>
+      <c r="C64" s="34" t="s">
+        <v>164</v>
+      </c>
       <c r="D64" s="34"/>
       <c r="E64" s="34"/>
       <c r="F64" s="4">
@@ -3737,27 +4051,33 @@
       </c>
       <c r="H64" s="26"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="62"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="55"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <v>48</v>
       </c>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
+      <c r="C65" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" s="34">
+        <v>439</v>
+      </c>
+      <c r="E65" s="34">
+        <v>1</v>
+      </c>
       <c r="F65" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="G65" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H65" s="26"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="62"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="55"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="18">
@@ -3775,8 +4095,8 @@
       </c>
       <c r="H66" s="26"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="62"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="55"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
@@ -3794,8 +4114,8 @@
       </c>
       <c r="H67" s="26"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="61"/>
-      <c r="K67" s="62"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="55"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="18">
@@ -3813,8 +4133,8 @@
       </c>
       <c r="H68" s="26"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="61"/>
-      <c r="K68" s="62"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="55"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
@@ -3832,8 +4152,8 @@
       </c>
       <c r="H69" s="26"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="61"/>
-      <c r="K69" s="62"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="55"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="18">
@@ -3851,8 +4171,8 @@
       </c>
       <c r="H70" s="26"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="62"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="55"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
@@ -3870,8 +4190,8 @@
       </c>
       <c r="H71" s="26"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="62"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="55"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="18">
@@ -3889,8 +4209,8 @@
       </c>
       <c r="H72" s="26"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="62"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="55"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
@@ -3908,8 +4228,8 @@
       </c>
       <c r="H73" s="26"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="61"/>
-      <c r="K73" s="62"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="55"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="18">
@@ -3927,8 +4247,8 @@
       </c>
       <c r="H74" s="26"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="61"/>
-      <c r="K74" s="62"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="55"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
@@ -3946,8 +4266,8 @@
       </c>
       <c r="H75" s="26"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="62"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="55"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="18">
@@ -3965,8 +4285,8 @@
       </c>
       <c r="H76" s="26"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="61"/>
-      <c r="K76" s="62"/>
+      <c r="J76" s="54"/>
+      <c r="K76" s="55"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
@@ -3984,8 +4304,8 @@
       </c>
       <c r="H77" s="26"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="62"/>
+      <c r="J77" s="54"/>
+      <c r="K77" s="55"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="18">
@@ -4003,8 +4323,8 @@
       </c>
       <c r="H78" s="26"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="61"/>
-      <c r="K78" s="62"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="55"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
@@ -4022,8 +4342,8 @@
       </c>
       <c r="H79" s="26"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="61"/>
-      <c r="K79" s="62"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="55"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="18">
@@ -4041,8 +4361,8 @@
       </c>
       <c r="H80" s="26"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="61"/>
-      <c r="K80" s="62"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="55"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
@@ -4060,8 +4380,8 @@
       </c>
       <c r="H81" s="26"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="62"/>
+      <c r="J81" s="54"/>
+      <c r="K81" s="55"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="18">
@@ -4079,8 +4399,8 @@
       </c>
       <c r="H82" s="26"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="61"/>
-      <c r="K82" s="62"/>
+      <c r="J82" s="54"/>
+      <c r="K82" s="55"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
@@ -4098,8 +4418,8 @@
       </c>
       <c r="H83" s="26"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="61"/>
-      <c r="K83" s="62"/>
+      <c r="J83" s="54"/>
+      <c r="K83" s="55"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="18">
@@ -4117,8 +4437,8 @@
       </c>
       <c r="H84" s="26"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="61"/>
-      <c r="K84" s="62"/>
+      <c r="J84" s="54"/>
+      <c r="K84" s="55"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
@@ -4136,8 +4456,8 @@
       </c>
       <c r="H85" s="26"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="62"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="55"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="18">
@@ -4155,8 +4475,8 @@
       </c>
       <c r="H86" s="26"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="61"/>
-      <c r="K86" s="62"/>
+      <c r="J86" s="54"/>
+      <c r="K86" s="55"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="12">
@@ -4174,8 +4494,8 @@
       </c>
       <c r="H87" s="26"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="61"/>
-      <c r="K87" s="62"/>
+      <c r="J87" s="54"/>
+      <c r="K87" s="55"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" s="18">
@@ -4193,8 +4513,8 @@
       </c>
       <c r="H88" s="26"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="61"/>
-      <c r="K88" s="62"/>
+      <c r="J88" s="54"/>
+      <c r="K88" s="55"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
@@ -4212,8 +4532,8 @@
       </c>
       <c r="H89" s="26"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="61"/>
-      <c r="K89" s="62"/>
+      <c r="J89" s="54"/>
+      <c r="K89" s="55"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" s="18">
@@ -4231,8 +4551,8 @@
       </c>
       <c r="H90" s="26"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="61"/>
-      <c r="K90" s="62"/>
+      <c r="J90" s="54"/>
+      <c r="K90" s="55"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B91" s="12">
@@ -4250,8 +4570,8 @@
       </c>
       <c r="H91" s="26"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="61"/>
-      <c r="K91" s="62"/>
+      <c r="J91" s="54"/>
+      <c r="K91" s="55"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" s="18">
@@ -4269,8 +4589,8 @@
       </c>
       <c r="H92" s="26"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="62"/>
+      <c r="J92" s="54"/>
+      <c r="K92" s="55"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" s="12">
@@ -4288,8 +4608,8 @@
       </c>
       <c r="H93" s="26"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="61"/>
-      <c r="K93" s="62"/>
+      <c r="J93" s="54"/>
+      <c r="K93" s="55"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="18">
@@ -4307,8 +4627,8 @@
       </c>
       <c r="H94" s="26"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="61"/>
-      <c r="K94" s="62"/>
+      <c r="J94" s="54"/>
+      <c r="K94" s="55"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" s="12">
@@ -4326,8 +4646,8 @@
       </c>
       <c r="H95" s="26"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="61"/>
-      <c r="K95" s="62"/>
+      <c r="J95" s="54"/>
+      <c r="K95" s="55"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="18">
@@ -4345,8 +4665,8 @@
       </c>
       <c r="H96" s="26"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="61"/>
-      <c r="K96" s="62"/>
+      <c r="J96" s="54"/>
+      <c r="K96" s="55"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="12">
@@ -4364,8 +4684,8 @@
       </c>
       <c r="H97" s="26"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="61"/>
-      <c r="K97" s="62"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="55"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="18">
@@ -4383,8 +4703,8 @@
       </c>
       <c r="H98" s="26"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="61"/>
-      <c r="K98" s="62"/>
+      <c r="J98" s="54"/>
+      <c r="K98" s="55"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="12">
@@ -4402,8 +4722,8 @@
       </c>
       <c r="H99" s="26"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="61"/>
-      <c r="K99" s="62"/>
+      <c r="J99" s="54"/>
+      <c r="K99" s="55"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="18">
@@ -4421,8 +4741,8 @@
       </c>
       <c r="H100" s="26"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="61"/>
-      <c r="K100" s="62"/>
+      <c r="J100" s="54"/>
+      <c r="K100" s="55"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="12">
@@ -4440,8 +4760,8 @@
       </c>
       <c r="H101" s="26"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="61"/>
-      <c r="K101" s="62"/>
+      <c r="J101" s="54"/>
+      <c r="K101" s="55"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="18">
@@ -4459,8 +4779,8 @@
       </c>
       <c r="H102" s="26"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="61"/>
-      <c r="K102" s="62"/>
+      <c r="J102" s="54"/>
+      <c r="K102" s="55"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" s="12">
@@ -4478,8 +4798,8 @@
       </c>
       <c r="H103" s="26"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="61"/>
-      <c r="K103" s="62"/>
+      <c r="J103" s="54"/>
+      <c r="K103" s="55"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" s="18">
@@ -4497,8 +4817,8 @@
       </c>
       <c r="H104" s="26"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="61"/>
-      <c r="K104" s="62"/>
+      <c r="J104" s="54"/>
+      <c r="K104" s="55"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B105" s="12">
@@ -4516,8 +4836,8 @@
       </c>
       <c r="H105" s="26"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="61"/>
-      <c r="K105" s="62"/>
+      <c r="J105" s="54"/>
+      <c r="K105" s="55"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B106" s="18">
@@ -4535,8 +4855,8 @@
       </c>
       <c r="H106" s="26"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="61"/>
-      <c r="K106" s="62"/>
+      <c r="J106" s="54"/>
+      <c r="K106" s="55"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B107" s="12">
@@ -4554,8 +4874,8 @@
       </c>
       <c r="H107" s="26"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="61"/>
-      <c r="K107" s="62"/>
+      <c r="J107" s="54"/>
+      <c r="K107" s="55"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B108" s="18">
@@ -4573,8 +4893,8 @@
       </c>
       <c r="H108" s="26"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="61"/>
-      <c r="K108" s="62"/>
+      <c r="J108" s="54"/>
+      <c r="K108" s="55"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B109" s="12">
@@ -4592,8 +4912,8 @@
       </c>
       <c r="H109" s="26"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="61"/>
-      <c r="K109" s="62"/>
+      <c r="J109" s="54"/>
+      <c r="K109" s="55"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B110" s="18">
@@ -4611,8 +4931,8 @@
       </c>
       <c r="H110" s="26"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="61"/>
-      <c r="K110" s="62"/>
+      <c r="J110" s="54"/>
+      <c r="K110" s="55"/>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B111" s="12">
@@ -4630,8 +4950,8 @@
       </c>
       <c r="H111" s="26"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="61"/>
-      <c r="K111" s="62"/>
+      <c r="J111" s="54"/>
+      <c r="K111" s="55"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B112" s="18">
@@ -4649,8 +4969,8 @@
       </c>
       <c r="H112" s="26"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="61"/>
-      <c r="K112" s="62"/>
+      <c r="J112" s="54"/>
+      <c r="K112" s="55"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" s="12">
@@ -4668,8 +4988,8 @@
       </c>
       <c r="H113" s="26"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="61"/>
-      <c r="K113" s="62"/>
+      <c r="J113" s="54"/>
+      <c r="K113" s="55"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B114" s="18">
@@ -4687,8 +5007,8 @@
       </c>
       <c r="H114" s="26"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="61"/>
-      <c r="K114" s="62"/>
+      <c r="J114" s="54"/>
+      <c r="K114" s="55"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B115" s="12">
@@ -4706,8 +5026,8 @@
       </c>
       <c r="H115" s="26"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="61"/>
-      <c r="K115" s="62"/>
+      <c r="J115" s="54"/>
+      <c r="K115" s="55"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B116" s="18">
@@ -4725,8 +5045,8 @@
       </c>
       <c r="H116" s="26"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="61"/>
-      <c r="K116" s="62"/>
+      <c r="J116" s="54"/>
+      <c r="K116" s="55"/>
     </row>
     <row r="117" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B117" s="12">
@@ -4744,11 +5064,109 @@
       </c>
       <c r="H117" s="31"/>
       <c r="I117" s="32"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="72"/>
+      <c r="J117" s="56"/>
+      <c r="K117" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="122">
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="J90:K90"/>
     <mergeCell ref="J115:K115"/>
     <mergeCell ref="J116:K116"/>
     <mergeCell ref="J117:K117"/>
@@ -4773,104 +5191,6 @@
     <mergeCell ref="J100:K100"/>
     <mergeCell ref="J101:K101"/>
     <mergeCell ref="J102:K102"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5292,36 +5612,36 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
     </row>
     <row r="5" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -5329,18 +5649,18 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="85"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
@@ -5362,20 +5682,20 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">

--- a/決算用予算会議入力フォーマット_2021 .xlsx
+++ b/決算用予算会議入力フォーマット_2021 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F878DB37-475A-439B-B50D-86893D209EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398D24BD-9DDD-414D-9EAD-5E6AD0C923CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="924" yWindow="900" windowWidth="14448" windowHeight="10752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1548" yWindow="360" windowWidth="17280" windowHeight="10752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="入力シート" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="167">
   <si>
     <t>学年</t>
     <rPh sb="0" eb="2">
@@ -1405,13 +1405,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>黄銅M0.5Z80</t>
-    <rPh sb="0" eb="2">
-      <t>オウドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ピニオンM0.5Z8</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1439,6 +1432,20 @@
   </si>
   <si>
     <t>ナイロンナット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配送料</t>
+    <rPh sb="0" eb="3">
+      <t>ハイソウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄銅M0.5Z80-&gt;RS0.5</t>
+    <rPh sb="0" eb="2">
+      <t>オウドウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2182,11 +2189,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="55" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="55" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2225,46 +2282,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="55" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="55" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2276,16 +2293,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2632,8 +2639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2657,22 +2664,22 @@
       <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="65" t="s">
+      <c r="I1" s="76"/>
+      <c r="J1" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="66"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="47"/>
       <c r="C2" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
       <c r="J2" s="22" t="s">
         <v>98</v>
       </c>
@@ -2683,10 +2690,10 @@
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="49"/>
       <c r="C3" s="50"/>
-      <c r="H3" s="75">
+      <c r="H3" s="58">
         <v>44287</v>
       </c>
-      <c r="I3" s="76"/>
+      <c r="I3" s="59"/>
       <c r="J3" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H3),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2703,10 +2710,10 @@
       <c r="C4" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="75">
+      <c r="H4" s="58">
         <v>44317</v>
       </c>
-      <c r="I4" s="76"/>
+      <c r="I4" s="59"/>
       <c r="J4" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H4),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2723,10 +2730,10 @@
       <c r="C5" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="58">
         <v>44348</v>
       </c>
-      <c r="I5" s="76"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H5),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2743,10 +2750,10 @@
       <c r="C6" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="58">
         <v>44378</v>
       </c>
-      <c r="I6" s="76"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H6),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2764,10 +2771,10 @@
         <v>121</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="H7" s="75">
+      <c r="H7" s="58">
         <v>44409</v>
       </c>
-      <c r="I7" s="76"/>
+      <c r="I7" s="59"/>
       <c r="J7" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H7),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2780,10 +2787,10 @@
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="H8" s="75">
+      <c r="H8" s="58">
         <v>44440</v>
       </c>
-      <c r="I8" s="76"/>
+      <c r="I8" s="59"/>
       <c r="J8" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H8),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2796,10 +2803,10 @@
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="H9" s="75">
+      <c r="H9" s="58">
         <v>44470</v>
       </c>
-      <c r="I9" s="76"/>
+      <c r="I9" s="59"/>
       <c r="J9" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H9),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2812,10 +2819,10 @@
     <row r="10" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="H10" s="75">
+      <c r="H10" s="58">
         <v>44501</v>
       </c>
-      <c r="I10" s="76"/>
+      <c r="I10" s="59"/>
       <c r="J10" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H10),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2831,15 +2838,15 @@
       </c>
       <c r="C11" s="43">
         <f>SUM($F18:$F117)</f>
-        <v>75345</v>
+        <v>97336</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="58">
         <v>44531</v>
       </c>
-      <c r="I11" s="76"/>
+      <c r="I11" s="59"/>
       <c r="J11" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H11),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2853,14 +2860,16 @@
       <c r="B12" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="51">
+        <v>68000</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="75">
+      <c r="H12" s="58">
         <v>44562</v>
       </c>
-      <c r="I12" s="76"/>
+      <c r="I12" s="59"/>
       <c r="J12" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H12),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2873,10 +2882,10 @@
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="H13" s="75">
+      <c r="H13" s="58">
         <v>44593</v>
       </c>
-      <c r="I13" s="76"/>
+      <c r="I13" s="59"/>
       <c r="J13" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H13),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2889,10 +2898,10 @@
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="H14" s="75">
+      <c r="H14" s="58">
         <v>44621</v>
       </c>
-      <c r="I14" s="76"/>
+      <c r="I14" s="59"/>
       <c r="J14" s="16">
         <f>SUMIFS($F$18:$F$117,$H$18:$H$117,MONTH($H14),$G$18:$G$117,list!D$30)</f>
         <v>0</v>
@@ -2907,73 +2916,73 @@
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="77" t="s">
+      <c r="E16" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="77" t="s">
+      <c r="F16" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="71" t="s">
+      <c r="G16" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="79" t="s">
+      <c r="H16" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="80"/>
-      <c r="J16" s="58" t="s">
+      <c r="I16" s="63"/>
+      <c r="J16" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="59"/>
+      <c r="K16" s="77"/>
     </row>
     <row r="17" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="70"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="72"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="41" t="s">
         <v>92</v>
       </c>
       <c r="I17" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="60"/>
-      <c r="K17" s="61"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="79"/>
     </row>
     <row r="18" spans="2:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="18">
         <v>1</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="54" t="s">
         <v>122</v>
       </c>
       <c r="D18" s="33">
         <v>7400</v>
       </c>
       <c r="E18" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="40">
         <f t="shared" ref="F18:F58" si="0">D18*E18</f>
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>100</v>
       </c>
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="74"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
@@ -2983,22 +2992,22 @@
         <v>125</v>
       </c>
       <c r="D19" s="33">
-        <v>667</v>
+        <v>1025</v>
       </c>
       <c r="E19" s="33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F19" s="40">
         <f t="shared" si="0"/>
-        <v>5336</v>
+        <v>10250</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H19" s="24"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="55"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="65"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="18">
@@ -3022,8 +3031,8 @@
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="55"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="12">
@@ -3047,8 +3056,8 @@
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="55"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="65"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="18">
@@ -3072,8 +3081,8 @@
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="55"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="65"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
@@ -3097,8 +3106,8 @@
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="55"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="18">
@@ -3122,8 +3131,8 @@
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="55"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
@@ -3147,8 +3156,8 @@
       </c>
       <c r="H25" s="26"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="55"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="18">
@@ -3172,8 +3181,8 @@
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="55"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="65"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
@@ -3197,8 +3206,8 @@
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="55"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="18">
@@ -3222,8 +3231,8 @@
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="55"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
@@ -3247,8 +3256,8 @@
       </c>
       <c r="H29" s="26"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="55"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="65"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="18">
@@ -3272,8 +3281,8 @@
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="55"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
@@ -3297,8 +3306,8 @@
       </c>
       <c r="H31" s="26"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="55"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="65"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="18">
@@ -3322,8 +3331,8 @@
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="55"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="65"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
@@ -3347,8 +3356,8 @@
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="55"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="65"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="18">
@@ -3372,8 +3381,8 @@
       </c>
       <c r="H34" s="26"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="55"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="65"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
@@ -3391,8 +3400,8 @@
       </c>
       <c r="H35" s="26"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="55"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="65"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="18">
@@ -3416,8 +3425,8 @@
       </c>
       <c r="H36" s="26"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="55"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="65"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
@@ -3440,14 +3449,14 @@
       </c>
       <c r="H37" s="26"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="55"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="65"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="18">
         <v>21</v>
       </c>
-      <c r="C38" s="87" t="s">
+      <c r="C38" s="55" t="s">
         <v>150</v>
       </c>
       <c r="D38" s="34" t="s">
@@ -3464,8 +3473,8 @@
       </c>
       <c r="H38" s="26"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="55"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="65"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
@@ -3488,8 +3497,8 @@
       </c>
       <c r="H39" s="26"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="55"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="65"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="18">
@@ -3512,8 +3521,8 @@
       </c>
       <c r="H40" s="26"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="55"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="65"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
@@ -3536,8 +3545,8 @@
       </c>
       <c r="H41" s="26"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="55"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="65"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="18">
@@ -3560,8 +3569,8 @@
       </c>
       <c r="H42" s="26"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="55"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="65"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
@@ -3578,8 +3587,8 @@
       </c>
       <c r="H43" s="26"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="55"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="65"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="18">
@@ -3598,8 +3607,8 @@
       </c>
       <c r="H44" s="26"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="55"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="65"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
@@ -3622,8 +3631,8 @@
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="55"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="65"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="18">
@@ -3646,8 +3655,8 @@
       </c>
       <c r="H46" s="26"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="55"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="65"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
@@ -3670,8 +3679,8 @@
       </c>
       <c r="H47" s="26"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="55"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="65"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="18">
@@ -3694,8 +3703,8 @@
       </c>
       <c r="H48" s="26"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="55"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="65"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
@@ -3718,8 +3727,8 @@
       </c>
       <c r="H49" s="26"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="55"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="65"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="18">
@@ -3737,8 +3746,8 @@
       </c>
       <c r="H50" s="26"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="55"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="65"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
@@ -3758,8 +3767,8 @@
       </c>
       <c r="H51" s="26"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="55"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="65"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="18">
@@ -3783,14 +3792,14 @@
       </c>
       <c r="H52" s="26"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="55"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="65"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <v>36</v>
       </c>
-      <c r="C53" s="88" t="s">
+      <c r="C53" s="56" t="s">
         <v>157</v>
       </c>
       <c r="D53" s="34">
@@ -3808,15 +3817,15 @@
       </c>
       <c r="H53" s="26"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="55"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="65"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="18">
         <v>37</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="89"/>
+      <c r="E54" s="57"/>
       <c r="F54" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3826,14 +3835,14 @@
       </c>
       <c r="H54" s="26"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="55"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="65"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <v>38</v>
       </c>
-      <c r="C55" s="88" t="s">
+      <c r="C55" s="56" t="s">
         <v>158</v>
       </c>
       <c r="D55" s="34">
@@ -3851,8 +3860,8 @@
       </c>
       <c r="H55" s="26"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="55"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="65"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="18">
@@ -3870,40 +3879,40 @@
       </c>
       <c r="H56" s="26"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="55"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="65"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <v>40</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D57" s="34">
         <v>759</v>
       </c>
       <c r="E57" s="34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F57" s="40">
         <f t="shared" si="0"/>
-        <v>1518</v>
+        <v>3795</v>
       </c>
       <c r="G57" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H57" s="26"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="55"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="65"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="18">
         <v>41</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D58" s="34">
         <v>250</v>
@@ -3920,8 +3929,8 @@
       </c>
       <c r="H58" s="28"/>
       <c r="I58" s="29"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="55"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="65"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
@@ -3931,7 +3940,7 @@
       <c r="D59" s="34"/>
       <c r="E59" s="34"/>
       <c r="F59" s="4">
-        <f t="shared" ref="F21:F84" si="1">D59*E59</f>
+        <f t="shared" ref="F59:F84" si="1">D59*E59</f>
         <v>0</v>
       </c>
       <c r="G59" s="23" t="s">
@@ -3939,15 +3948,15 @@
       </c>
       <c r="H59" s="26"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="55"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="65"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="18">
         <v>43</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D60" s="34"/>
       <c r="E60" s="34"/>
@@ -3960,15 +3969,15 @@
       </c>
       <c r="H60" s="26"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="55"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="65"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <v>44</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D61" s="34">
         <v>34</v>
@@ -3985,8 +3994,8 @@
       </c>
       <c r="H61" s="26"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="55"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="65"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="18">
@@ -4004,15 +4013,15 @@
       </c>
       <c r="H62" s="26"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="55"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="65"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <v>46</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D63" s="34">
         <f>1028+719*4+409*3</f>
@@ -4030,15 +4039,15 @@
       </c>
       <c r="H63" s="26"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="55"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="65"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="18">
         <v>47</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D64" s="34"/>
       <c r="E64" s="34"/>
@@ -4051,15 +4060,15 @@
       </c>
       <c r="H64" s="26"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="55"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="65"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <v>48</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D65" s="34">
         <v>439</v>
@@ -4076,8 +4085,8 @@
       </c>
       <c r="H65" s="26"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="55"/>
+      <c r="J65" s="64"/>
+      <c r="K65" s="65"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="18">
@@ -4095,8 +4104,8 @@
       </c>
       <c r="H66" s="26"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="55"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="65"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
@@ -4114,14 +4123,16 @@
       </c>
       <c r="H67" s="26"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="55"/>
+      <c r="J67" s="64"/>
+      <c r="K67" s="65"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="18">
         <v>51</v>
       </c>
-      <c r="C68" s="34"/>
+      <c r="C68" s="34" t="s">
+        <v>165</v>
+      </c>
       <c r="D68" s="34"/>
       <c r="E68" s="34"/>
       <c r="F68" s="4">
@@ -4133,8 +4144,8 @@
       </c>
       <c r="H68" s="26"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="55"/>
+      <c r="J68" s="64"/>
+      <c r="K68" s="65"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
@@ -4152,8 +4163,8 @@
       </c>
       <c r="H69" s="26"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="55"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="65"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="18">
@@ -4171,8 +4182,8 @@
       </c>
       <c r="H70" s="26"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="55"/>
+      <c r="J70" s="64"/>
+      <c r="K70" s="65"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
@@ -4190,8 +4201,8 @@
       </c>
       <c r="H71" s="26"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="55"/>
+      <c r="J71" s="64"/>
+      <c r="K71" s="65"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="18">
@@ -4209,8 +4220,8 @@
       </c>
       <c r="H72" s="26"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="55"/>
+      <c r="J72" s="64"/>
+      <c r="K72" s="65"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
@@ -4228,8 +4239,8 @@
       </c>
       <c r="H73" s="26"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="55"/>
+      <c r="J73" s="64"/>
+      <c r="K73" s="65"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="18">
@@ -4247,8 +4258,8 @@
       </c>
       <c r="H74" s="26"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="55"/>
+      <c r="J74" s="64"/>
+      <c r="K74" s="65"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
@@ -4266,8 +4277,8 @@
       </c>
       <c r="H75" s="26"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="54"/>
-      <c r="K75" s="55"/>
+      <c r="J75" s="64"/>
+      <c r="K75" s="65"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="18">
@@ -4285,8 +4296,8 @@
       </c>
       <c r="H76" s="26"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="55"/>
+      <c r="J76" s="64"/>
+      <c r="K76" s="65"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
@@ -4304,8 +4315,8 @@
       </c>
       <c r="H77" s="26"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="55"/>
+      <c r="J77" s="64"/>
+      <c r="K77" s="65"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="18">
@@ -4323,8 +4334,8 @@
       </c>
       <c r="H78" s="26"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="55"/>
+      <c r="J78" s="64"/>
+      <c r="K78" s="65"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
@@ -4342,8 +4353,8 @@
       </c>
       <c r="H79" s="26"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="55"/>
+      <c r="J79" s="64"/>
+      <c r="K79" s="65"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="18">
@@ -4361,8 +4372,8 @@
       </c>
       <c r="H80" s="26"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="55"/>
+      <c r="J80" s="64"/>
+      <c r="K80" s="65"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
@@ -4380,8 +4391,8 @@
       </c>
       <c r="H81" s="26"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="54"/>
-      <c r="K81" s="55"/>
+      <c r="J81" s="64"/>
+      <c r="K81" s="65"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="18">
@@ -4399,8 +4410,8 @@
       </c>
       <c r="H82" s="26"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="54"/>
-      <c r="K82" s="55"/>
+      <c r="J82" s="64"/>
+      <c r="K82" s="65"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
@@ -4418,8 +4429,8 @@
       </c>
       <c r="H83" s="26"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="54"/>
-      <c r="K83" s="55"/>
+      <c r="J83" s="64"/>
+      <c r="K83" s="65"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="18">
@@ -4437,8 +4448,8 @@
       </c>
       <c r="H84" s="26"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="54"/>
-      <c r="K84" s="55"/>
+      <c r="J84" s="64"/>
+      <c r="K84" s="65"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
@@ -4456,8 +4467,8 @@
       </c>
       <c r="H85" s="26"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="54"/>
-      <c r="K85" s="55"/>
+      <c r="J85" s="64"/>
+      <c r="K85" s="65"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="18">
@@ -4475,8 +4486,8 @@
       </c>
       <c r="H86" s="26"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="54"/>
-      <c r="K86" s="55"/>
+      <c r="J86" s="64"/>
+      <c r="K86" s="65"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="12">
@@ -4494,8 +4505,8 @@
       </c>
       <c r="H87" s="26"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="54"/>
-      <c r="K87" s="55"/>
+      <c r="J87" s="64"/>
+      <c r="K87" s="65"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" s="18">
@@ -4513,8 +4524,8 @@
       </c>
       <c r="H88" s="26"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="54"/>
-      <c r="K88" s="55"/>
+      <c r="J88" s="64"/>
+      <c r="K88" s="65"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
@@ -4532,8 +4543,8 @@
       </c>
       <c r="H89" s="26"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="54"/>
-      <c r="K89" s="55"/>
+      <c r="J89" s="64"/>
+      <c r="K89" s="65"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" s="18">
@@ -4551,8 +4562,8 @@
       </c>
       <c r="H90" s="26"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="54"/>
-      <c r="K90" s="55"/>
+      <c r="J90" s="64"/>
+      <c r="K90" s="65"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B91" s="12">
@@ -4570,8 +4581,8 @@
       </c>
       <c r="H91" s="26"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="54"/>
-      <c r="K91" s="55"/>
+      <c r="J91" s="64"/>
+      <c r="K91" s="65"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" s="18">
@@ -4589,8 +4600,8 @@
       </c>
       <c r="H92" s="26"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="54"/>
-      <c r="K92" s="55"/>
+      <c r="J92" s="64"/>
+      <c r="K92" s="65"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" s="12">
@@ -4608,8 +4619,8 @@
       </c>
       <c r="H93" s="26"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="54"/>
-      <c r="K93" s="55"/>
+      <c r="J93" s="64"/>
+      <c r="K93" s="65"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="18">
@@ -4627,8 +4638,8 @@
       </c>
       <c r="H94" s="26"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="54"/>
-      <c r="K94" s="55"/>
+      <c r="J94" s="64"/>
+      <c r="K94" s="65"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" s="12">
@@ -4646,8 +4657,8 @@
       </c>
       <c r="H95" s="26"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="55"/>
+      <c r="J95" s="64"/>
+      <c r="K95" s="65"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="18">
@@ -4665,8 +4676,8 @@
       </c>
       <c r="H96" s="26"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="54"/>
-      <c r="K96" s="55"/>
+      <c r="J96" s="64"/>
+      <c r="K96" s="65"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="12">
@@ -4684,8 +4695,8 @@
       </c>
       <c r="H97" s="26"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="54"/>
-      <c r="K97" s="55"/>
+      <c r="J97" s="64"/>
+      <c r="K97" s="65"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="18">
@@ -4703,8 +4714,8 @@
       </c>
       <c r="H98" s="26"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="54"/>
-      <c r="K98" s="55"/>
+      <c r="J98" s="64"/>
+      <c r="K98" s="65"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="12">
@@ -4722,8 +4733,8 @@
       </c>
       <c r="H99" s="26"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="54"/>
-      <c r="K99" s="55"/>
+      <c r="J99" s="64"/>
+      <c r="K99" s="65"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="18">
@@ -4741,8 +4752,8 @@
       </c>
       <c r="H100" s="26"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="54"/>
-      <c r="K100" s="55"/>
+      <c r="J100" s="64"/>
+      <c r="K100" s="65"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="12">
@@ -4760,8 +4771,8 @@
       </c>
       <c r="H101" s="26"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="54"/>
-      <c r="K101" s="55"/>
+      <c r="J101" s="64"/>
+      <c r="K101" s="65"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="18">
@@ -4779,8 +4790,8 @@
       </c>
       <c r="H102" s="26"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="54"/>
-      <c r="K102" s="55"/>
+      <c r="J102" s="64"/>
+      <c r="K102" s="65"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" s="12">
@@ -4798,8 +4809,8 @@
       </c>
       <c r="H103" s="26"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="54"/>
-      <c r="K103" s="55"/>
+      <c r="J103" s="64"/>
+      <c r="K103" s="65"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" s="18">
@@ -4817,8 +4828,8 @@
       </c>
       <c r="H104" s="26"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="54"/>
-      <c r="K104" s="55"/>
+      <c r="J104" s="64"/>
+      <c r="K104" s="65"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B105" s="12">
@@ -4836,8 +4847,8 @@
       </c>
       <c r="H105" s="26"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="54"/>
-      <c r="K105" s="55"/>
+      <c r="J105" s="64"/>
+      <c r="K105" s="65"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B106" s="18">
@@ -4855,8 +4866,8 @@
       </c>
       <c r="H106" s="26"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="54"/>
-      <c r="K106" s="55"/>
+      <c r="J106" s="64"/>
+      <c r="K106" s="65"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B107" s="12">
@@ -4874,8 +4885,8 @@
       </c>
       <c r="H107" s="26"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="54"/>
-      <c r="K107" s="55"/>
+      <c r="J107" s="64"/>
+      <c r="K107" s="65"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B108" s="18">
@@ -4893,8 +4904,8 @@
       </c>
       <c r="H108" s="26"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="54"/>
-      <c r="K108" s="55"/>
+      <c r="J108" s="64"/>
+      <c r="K108" s="65"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B109" s="12">
@@ -4912,8 +4923,8 @@
       </c>
       <c r="H109" s="26"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="55"/>
+      <c r="J109" s="64"/>
+      <c r="K109" s="65"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B110" s="18">
@@ -4931,8 +4942,8 @@
       </c>
       <c r="H110" s="26"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="54"/>
-      <c r="K110" s="55"/>
+      <c r="J110" s="64"/>
+      <c r="K110" s="65"/>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B111" s="12">
@@ -4950,8 +4961,8 @@
       </c>
       <c r="H111" s="26"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="55"/>
+      <c r="J111" s="64"/>
+      <c r="K111" s="65"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B112" s="18">
@@ -4969,8 +4980,8 @@
       </c>
       <c r="H112" s="26"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="54"/>
-      <c r="K112" s="55"/>
+      <c r="J112" s="64"/>
+      <c r="K112" s="65"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" s="12">
@@ -4988,8 +4999,8 @@
       </c>
       <c r="H113" s="26"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="54"/>
-      <c r="K113" s="55"/>
+      <c r="J113" s="64"/>
+      <c r="K113" s="65"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B114" s="18">
@@ -5007,8 +5018,8 @@
       </c>
       <c r="H114" s="26"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="54"/>
-      <c r="K114" s="55"/>
+      <c r="J114" s="64"/>
+      <c r="K114" s="65"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B115" s="12">
@@ -5026,8 +5037,8 @@
       </c>
       <c r="H115" s="26"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="54"/>
-      <c r="K115" s="55"/>
+      <c r="J115" s="64"/>
+      <c r="K115" s="65"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B116" s="18">
@@ -5045,8 +5056,8 @@
       </c>
       <c r="H116" s="26"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="54"/>
-      <c r="K116" s="55"/>
+      <c r="J116" s="64"/>
+      <c r="K116" s="65"/>
     </row>
     <row r="117" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B117" s="12">
@@ -5064,109 +5075,11 @@
       </c>
       <c r="H117" s="31"/>
       <c r="I117" s="32"/>
-      <c r="J117" s="56"/>
-      <c r="K117" s="57"/>
+      <c r="J117" s="74"/>
+      <c r="K117" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="J90:K90"/>
     <mergeCell ref="J115:K115"/>
     <mergeCell ref="J116:K116"/>
     <mergeCell ref="J117:K117"/>
@@ -5191,6 +5104,104 @@
     <mergeCell ref="J100:K100"/>
     <mergeCell ref="J101:K101"/>
     <mergeCell ref="J102:K102"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5612,36 +5623,36 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
     </row>
     <row r="5" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -5649,18 +5660,18 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
@@ -5682,20 +5693,20 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
